--- a/Federacion/VoleyPlaya.GestionWeb/wwwroot/excel/actaVoleyPlayaCircuito1Set.xlsx
+++ b/Federacion/VoleyPlaya.GestionWeb/wwwroot/excel/actaVoleyPlayaCircuito1Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\srcRepository\Proyectos Estela\Federacion\VoleyPlaya.GestionWeb\wwwroot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D281EB-145C-4311-904A-78F53012BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445262CC-9419-44DF-89AD-3D6CABE19FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F1BA56-DA9B-434E-80BC-85FBFDC931B6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AN$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,16 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
-  <si>
-    <t>&lt;pista&gt;</t>
-  </si>
-  <si>
-    <t>&lt;fecha&gt;</t>
-  </si>
-  <si>
-    <t>&lt;hora&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Sanciones conducta</t>
   </si>
@@ -115,12 +106,6 @@
     <t>VS</t>
   </si>
   <si>
-    <t>&lt;num partido&gt;</t>
-  </si>
-  <si>
-    <t>&lt;genero&gt;</t>
-  </si>
-  <si>
     <t>EQUIPOS</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>Firma capitán post-partido</t>
   </si>
   <si>
-    <t>&lt;lugar&gt;&lt;playa&gt;&lt;nombre de competicion&gt; &lt;categoria&gt;</t>
-  </si>
-  <si>
     <t>1   2   3   4   5   6   7   8   9   10   11   12   13   14   15   16   17   18   19   20   21   22   23   24   25   26   27   28   29   30   31   32   33   34   35   36   37   38   39   40   41   42   43   44</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
   </si>
   <si>
     <t>Duración total     …. h    …. mn</t>
-  </si>
-  <si>
-    <t>&lt;GRUPO&gt;</t>
   </si>
   <si>
     <t>Aviso 
@@ -1199,18 +1178,561 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,549 +1758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2832,7 +2811,7 @@
   <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AM8"/>
+      <selection activeCell="AH10" sqref="AH10:AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -2844,730 +2823,716 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="147"/>
+      <c r="A1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="150"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="46"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="150"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="150"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="46"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="149"/>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="149"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="149"/>
-      <c r="AH5" s="149"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="149"/>
-      <c r="AK5" s="149"/>
-      <c r="AL5" s="149"/>
-      <c r="AM5" s="150"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46"/>
     </row>
     <row r="6" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="153"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="49"/>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="232" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="233"/>
-      <c r="P7" s="233"/>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="233"/>
-      <c r="W7" s="233"/>
-      <c r="X7" s="233"/>
-      <c r="Y7" s="233"/>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="233"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="233"/>
-      <c r="AD7" s="233"/>
-      <c r="AE7" s="233"/>
-      <c r="AF7" s="233"/>
-      <c r="AG7" s="233"/>
-      <c r="AH7" s="233"/>
-      <c r="AI7" s="233"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="233"/>
-      <c r="AL7" s="233"/>
-      <c r="AM7" s="234"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="157"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+      <c r="AF7" s="157"/>
+      <c r="AG7" s="157"/>
+      <c r="AH7" s="157"/>
+      <c r="AI7" s="157"/>
+      <c r="AJ7" s="157"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="157"/>
+      <c r="AM7" s="158"/>
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="227"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="228"/>
-      <c r="Q8" s="228"/>
-      <c r="R8" s="228"/>
-      <c r="S8" s="228"/>
-      <c r="T8" s="228"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="228"/>
-      <c r="W8" s="228"/>
-      <c r="X8" s="228"/>
-      <c r="Y8" s="228"/>
-      <c r="Z8" s="228"/>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="228"/>
-      <c r="AC8" s="228"/>
-      <c r="AD8" s="228"/>
-      <c r="AE8" s="228"/>
-      <c r="AF8" s="228"/>
-      <c r="AG8" s="228"/>
-      <c r="AH8" s="228"/>
-      <c r="AI8" s="228"/>
-      <c r="AJ8" s="228"/>
-      <c r="AK8" s="228"/>
-      <c r="AL8" s="228"/>
-      <c r="AM8" s="231"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="160"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="160"/>
+      <c r="AI8" s="160"/>
+      <c r="AJ8" s="160"/>
+      <c r="AK8" s="160"/>
+      <c r="AL8" s="160"/>
+      <c r="AM8" s="161"/>
     </row>
     <row r="9" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="104"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="142"/>
+      <c r="AM9" s="143"/>
     </row>
     <row r="10" spans="1:39" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="227" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="228"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="230" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="228"/>
-      <c r="R10" s="228"/>
-      <c r="S10" s="228"/>
-      <c r="T10" s="228"/>
-      <c r="U10" s="228"/>
-      <c r="V10" s="228"/>
-      <c r="W10" s="228"/>
-      <c r="X10" s="228"/>
-      <c r="Y10" s="228"/>
-      <c r="Z10" s="229"/>
-      <c r="AA10" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="228"/>
-      <c r="AC10" s="228"/>
-      <c r="AD10" s="229"/>
-      <c r="AE10" s="230" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF10" s="228"/>
-      <c r="AG10" s="229"/>
-      <c r="AH10" s="230" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI10" s="228"/>
-      <c r="AJ10" s="228"/>
-      <c r="AK10" s="228"/>
-      <c r="AL10" s="228"/>
-      <c r="AM10" s="231"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="160"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="160"/>
+      <c r="AJ10" s="160"/>
+      <c r="AK10" s="160"/>
+      <c r="AL10" s="160"/>
+      <c r="AM10" s="161"/>
     </row>
     <row r="11" spans="1:39" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="104"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="142"/>
+      <c r="AD11" s="142"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="142"/>
+      <c r="AG11" s="142"/>
+      <c r="AH11" s="142"/>
+      <c r="AI11" s="142"/>
+      <c r="AJ11" s="142"/>
+      <c r="AK11" s="142"/>
+      <c r="AL11" s="142"/>
+      <c r="AM11" s="143"/>
     </row>
     <row r="12" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="219"/>
-      <c r="S12" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="216" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="219"/>
-      <c r="AJ12" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="110"/>
+      <c r="A12" s="164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="168"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="148"/>
+      <c r="AL12" s="148"/>
+      <c r="AM12" s="149"/>
     </row>
     <row r="13" spans="1:39" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="220"/>
-      <c r="AB13" s="220"/>
-      <c r="AC13" s="220"/>
-      <c r="AD13" s="220"/>
-      <c r="AE13" s="220"/>
-      <c r="AF13" s="220"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="220"/>
-      <c r="AI13" s="221"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="112"/>
-      <c r="AM13" s="113"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="171"/>
+      <c r="AJ13" s="150"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="152"/>
     </row>
     <row r="14" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="107"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="145"/>
+      <c r="AL14" s="145"/>
+      <c r="AM14" s="146"/>
     </row>
     <row r="15" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="201" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="199" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="194" t="s">
+      <c r="A15" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AG15" s="195"/>
-      <c r="AH15" s="195"/>
-      <c r="AI15" s="195"/>
-      <c r="AJ15" s="195"/>
-      <c r="AK15" s="196"/>
-      <c r="AL15" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM15" s="101"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="193" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM15" s="194"/>
     </row>
     <row r="16" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="202"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="176"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="178"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="197"/>
-      <c r="AJ16" s="197"/>
-      <c r="AK16" s="198"/>
-      <c r="AL16" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM16" s="82"/>
+        <v>2</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM16" s="175"/>
     </row>
     <row r="17" spans="1:39" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17" s="18">
         <v>1</v>
@@ -3659,30 +3624,30 @@
       <c r="AK17" s="20">
         <v>30</v>
       </c>
-      <c r="AL17" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM17" s="82"/>
+      <c r="AL17" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="175"/>
     </row>
     <row r="18" spans="1:39" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
@@ -3774,344 +3739,344 @@
       <c r="AK18" s="20">
         <v>30</v>
       </c>
-      <c r="AL18" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM18" s="82"/>
+      <c r="AL18" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="175"/>
     </row>
     <row r="19" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="201" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="199" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="161"/>
-      <c r="AJ19" s="161"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM19" s="82"/>
+      <c r="A19" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="175"/>
     </row>
     <row r="20" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="202"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="154" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM20" s="82"/>
+        <v>54</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="181"/>
+      <c r="V20" s="181"/>
+      <c r="W20" s="181"/>
+      <c r="X20" s="181"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="181"/>
+      <c r="AA20" s="181"/>
+      <c r="AB20" s="181"/>
+      <c r="AC20" s="181"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="181"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="181"/>
+      <c r="AJ20" s="181"/>
+      <c r="AK20" s="182"/>
+      <c r="AL20" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="175"/>
     </row>
     <row r="21" spans="1:39" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM21" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="184"/>
+      <c r="AD21" s="184"/>
+      <c r="AE21" s="184"/>
+      <c r="AF21" s="184"/>
+      <c r="AG21" s="184"/>
+      <c r="AH21" s="184"/>
+      <c r="AI21" s="184"/>
+      <c r="AJ21" s="184"/>
+      <c r="AK21" s="185"/>
+      <c r="AL21" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="175"/>
     </row>
     <row r="22" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM22" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="189"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="191"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="191"/>
+      <c r="AJ22" s="191"/>
+      <c r="AK22" s="192"/>
+      <c r="AL22" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="175"/>
     </row>
     <row r="23" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
-        <v>59</v>
+      <c r="A23" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM23" s="82"/>
+        <v>54</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="186" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="187"/>
+      <c r="AI23" s="187"/>
+      <c r="AJ23" s="187"/>
+      <c r="AK23" s="188"/>
+      <c r="AL23" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="175"/>
     </row>
     <row r="24" spans="1:39" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="182"/>
-      <c r="B24" s="183" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="164"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM24" s="82"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="187"/>
+      <c r="AF24" s="187"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="187"/>
+      <c r="AI24" s="187"/>
+      <c r="AJ24" s="187"/>
+      <c r="AK24" s="188"/>
+      <c r="AL24" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="175"/>
     </row>
     <row r="25" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H25" s="15">
         <v>1</v>
@@ -4203,30 +4168,30 @@
       <c r="AK25" s="17">
         <v>30</v>
       </c>
-      <c r="AL25" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM25" s="82"/>
+      <c r="AL25" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM25" s="175"/>
     </row>
     <row r="26" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H26" s="15">
         <v>1</v>
@@ -4318,302 +4283,302 @@
       <c r="AK26" s="17">
         <v>30</v>
       </c>
-      <c r="AL26" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM26" s="82"/>
+      <c r="AL26" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM26" s="175"/>
     </row>
     <row r="27" spans="1:39" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="181" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>58</v>
+      <c r="A27" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="227"/>
+      <c r="AF27" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG27" s="190"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="190"/>
-      <c r="AJ27" s="190"/>
-      <c r="AK27" s="191"/>
-      <c r="AL27" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM27" s="82"/>
+      <c r="AM27" s="175"/>
     </row>
     <row r="28" spans="1:39" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="192"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="192"/>
-      <c r="AI28" s="192"/>
-      <c r="AJ28" s="192"/>
-      <c r="AK28" s="193"/>
-      <c r="AL28" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM28" s="84"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="228"/>
+      <c r="R28" s="228"/>
+      <c r="S28" s="228"/>
+      <c r="T28" s="228"/>
+      <c r="U28" s="228"/>
+      <c r="V28" s="228"/>
+      <c r="W28" s="228"/>
+      <c r="X28" s="228"/>
+      <c r="Y28" s="228"/>
+      <c r="Z28" s="228"/>
+      <c r="AA28" s="228"/>
+      <c r="AB28" s="228"/>
+      <c r="AC28" s="228"/>
+      <c r="AD28" s="228"/>
+      <c r="AE28" s="229"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="91"/>
+      <c r="AJ28" s="91"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="177"/>
     </row>
     <row r="29" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="51"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="231"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="231"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="231"/>
+      <c r="Z29" s="231"/>
+      <c r="AA29" s="231"/>
+      <c r="AB29" s="231"/>
+      <c r="AC29" s="231"/>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="231"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="231"/>
+      <c r="AH29" s="231"/>
+      <c r="AI29" s="231"/>
+      <c r="AJ29" s="231"/>
+      <c r="AK29" s="231"/>
+      <c r="AL29" s="231"/>
+      <c r="AM29" s="232"/>
     </row>
     <row r="30" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="222" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="223"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="225"/>
-      <c r="T30" s="225"/>
-      <c r="U30" s="225"/>
-      <c r="V30" s="225"/>
-      <c r="W30" s="225"/>
-      <c r="X30" s="225"/>
-      <c r="Y30" s="226"/>
-      <c r="Z30" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="64"/>
+      <c r="A30" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="221"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="219"/>
+      <c r="Q30" s="219"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="223"/>
+      <c r="U30" s="223"/>
+      <c r="V30" s="223"/>
+      <c r="W30" s="223"/>
+      <c r="X30" s="223"/>
+      <c r="Y30" s="224"/>
+      <c r="Z30" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="197" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC30" s="198"/>
+      <c r="AD30" s="198"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="198"/>
+      <c r="AG30" s="198"/>
+      <c r="AH30" s="198"/>
+      <c r="AI30" s="198"/>
+      <c r="AJ30" s="198"/>
+      <c r="AK30" s="198"/>
+      <c r="AL30" s="198"/>
+      <c r="AM30" s="199"/>
     </row>
     <row r="31" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="130"/>
-      <c r="B31" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="66"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="200" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31" s="200"/>
+      <c r="AD31" s="200"/>
+      <c r="AE31" s="174"/>
       <c r="AF31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG31" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM31" s="70"/>
+        <v>57</v>
+      </c>
+      <c r="AG31" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH31" s="202"/>
+      <c r="AI31" s="203"/>
+      <c r="AJ31" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK31" s="203"/>
+      <c r="AL31" s="201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM31" s="204"/>
     </row>
     <row r="32" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="130"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="75"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="207" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="208"/>
+      <c r="AD32" s="208"/>
+      <c r="AE32" s="209"/>
       <c r="AF32" s="3">
         <v>1</v>
       </c>
@@ -4626,37 +4591,37 @@
       <c r="AM32" s="4"/>
     </row>
     <row r="33" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="130"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="78"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="211"/>
+      <c r="AD33" s="211"/>
+      <c r="AE33" s="212"/>
       <c r="AF33" s="8">
         <v>2</v>
       </c>
@@ -4669,43 +4634,43 @@
       <c r="AM33" s="10"/>
     </row>
     <row r="34" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="130"/>
-      <c r="B34" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="140"/>
-      <c r="AB34" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="81"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="214"/>
+      <c r="AD34" s="214"/>
+      <c r="AE34" s="215"/>
       <c r="AF34" s="11">
         <v>1</v>
       </c>
@@ -4718,53 +4683,53 @@
       <c r="AM34" s="13"/>
     </row>
     <row r="35" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="78"/>
+      <c r="A35" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="210"/>
+      <c r="AC35" s="211"/>
+      <c r="AD35" s="211"/>
+      <c r="AE35" s="212"/>
       <c r="AF35" s="6">
         <v>2</v>
       </c>
@@ -4777,590 +4742,717 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="130"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="72"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="225"/>
+      <c r="M36" s="225"/>
+      <c r="N36" s="225"/>
+      <c r="O36" s="225"/>
+      <c r="P36" s="225"/>
+      <c r="Q36" s="225"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="225"/>
+      <c r="V36" s="225"/>
+      <c r="W36" s="225"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="233" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC36" s="234"/>
+      <c r="AD36" s="234"/>
+      <c r="AE36" s="205" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36" s="205"/>
+      <c r="AG36" s="205"/>
+      <c r="AH36" s="205"/>
+      <c r="AI36" s="205"/>
+      <c r="AJ36" s="205"/>
+      <c r="AK36" s="205"/>
+      <c r="AL36" s="205"/>
+      <c r="AM36" s="206"/>
     </row>
     <row r="37" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="130"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="60"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="225"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="225"/>
+      <c r="O37" s="225"/>
+      <c r="P37" s="225"/>
+      <c r="Q37" s="225"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="225"/>
+      <c r="V37" s="225"/>
+      <c r="W37" s="225"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="195"/>
+      <c r="AC37" s="195"/>
+      <c r="AD37" s="195"/>
+      <c r="AE37" s="195"/>
+      <c r="AF37" s="195"/>
+      <c r="AG37" s="195"/>
+      <c r="AH37" s="195"/>
+      <c r="AI37" s="195"/>
+      <c r="AJ37" s="195"/>
+      <c r="AK37" s="195"/>
+      <c r="AL37" s="195"/>
+      <c r="AM37" s="196"/>
     </row>
     <row r="38" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="130"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="60"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="225"/>
+      <c r="N38" s="225"/>
+      <c r="O38" s="225"/>
+      <c r="P38" s="225"/>
+      <c r="Q38" s="225"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="225"/>
+      <c r="V38" s="225"/>
+      <c r="W38" s="225"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="112"/>
+      <c r="AB38" s="195"/>
+      <c r="AC38" s="195"/>
+      <c r="AD38" s="195"/>
+      <c r="AE38" s="195"/>
+      <c r="AF38" s="195"/>
+      <c r="AG38" s="195"/>
+      <c r="AH38" s="195"/>
+      <c r="AI38" s="195"/>
+      <c r="AJ38" s="195"/>
+      <c r="AK38" s="195"/>
+      <c r="AL38" s="195"/>
+      <c r="AM38" s="196"/>
     </row>
     <row r="39" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="130"/>
-      <c r="B39" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="142"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="60"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="120"/>
+      <c r="AB39" s="195"/>
+      <c r="AC39" s="195"/>
+      <c r="AD39" s="195"/>
+      <c r="AE39" s="195"/>
+      <c r="AF39" s="195"/>
+      <c r="AG39" s="195"/>
+      <c r="AH39" s="195"/>
+      <c r="AI39" s="195"/>
+      <c r="AJ39" s="195"/>
+      <c r="AK39" s="195"/>
+      <c r="AL39" s="195"/>
+      <c r="AM39" s="196"/>
     </row>
     <row r="40" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="136"/>
-      <c r="Z40" s="136"/>
-      <c r="AA40" s="137"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="60"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="195"/>
+      <c r="AC40" s="195"/>
+      <c r="AD40" s="195"/>
+      <c r="AE40" s="195"/>
+      <c r="AF40" s="195"/>
+      <c r="AG40" s="195"/>
+      <c r="AH40" s="195"/>
+      <c r="AI40" s="195"/>
+      <c r="AJ40" s="195"/>
+      <c r="AK40" s="195"/>
+      <c r="AL40" s="195"/>
+      <c r="AM40" s="196"/>
     </row>
     <row r="41" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="131"/>
-      <c r="B41" s="170" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="213" t="s">
-        <v>66</v>
-      </c>
-      <c r="U41" s="214"/>
-      <c r="V41" s="214"/>
-      <c r="W41" s="214"/>
-      <c r="X41" s="214"/>
-      <c r="Y41" s="214"/>
-      <c r="Z41" s="214"/>
-      <c r="AA41" s="215"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="60"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="195"/>
+      <c r="AC41" s="195"/>
+      <c r="AD41" s="195"/>
+      <c r="AE41" s="195"/>
+      <c r="AF41" s="195"/>
+      <c r="AG41" s="195"/>
+      <c r="AH41" s="195"/>
+      <c r="AI41" s="195"/>
+      <c r="AJ41" s="195"/>
+      <c r="AK41" s="195"/>
+      <c r="AL41" s="195"/>
+      <c r="AM41" s="196"/>
     </row>
     <row r="42" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="134"/>
+      <c r="D42" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="209" t="s">
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="210"/>
-      <c r="D42" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="208" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
-      <c r="O42" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="134"/>
-      <c r="X42" s="134"/>
-      <c r="Y42" s="134"/>
-      <c r="Z42" s="134"/>
-      <c r="AA42" s="135"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="59"/>
-      <c r="AK42" s="59"/>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="60"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="139"/>
+      <c r="R42" s="139"/>
+      <c r="S42" s="139"/>
+      <c r="T42" s="139"/>
+      <c r="U42" s="139"/>
+      <c r="V42" s="139"/>
+      <c r="W42" s="139"/>
+      <c r="X42" s="139"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="139"/>
+      <c r="AA42" s="140"/>
+      <c r="AB42" s="195"/>
+      <c r="AC42" s="195"/>
+      <c r="AD42" s="195"/>
+      <c r="AE42" s="195"/>
+      <c r="AF42" s="195"/>
+      <c r="AG42" s="195"/>
+      <c r="AH42" s="195"/>
+      <c r="AI42" s="195"/>
+      <c r="AJ42" s="195"/>
+      <c r="AK42" s="195"/>
+      <c r="AL42" s="195"/>
+      <c r="AM42" s="196"/>
     </row>
     <row r="43" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130"/>
-      <c r="B43" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="212"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="59"/>
-      <c r="AI43" s="59"/>
-      <c r="AJ43" s="59"/>
-      <c r="AK43" s="59"/>
-      <c r="AL43" s="59"/>
-      <c r="AM43" s="60"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="136"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="195"/>
+      <c r="AC43" s="195"/>
+      <c r="AD43" s="195"/>
+      <c r="AE43" s="195"/>
+      <c r="AF43" s="195"/>
+      <c r="AG43" s="195"/>
+      <c r="AH43" s="195"/>
+      <c r="AI43" s="195"/>
+      <c r="AJ43" s="195"/>
+      <c r="AK43" s="195"/>
+      <c r="AL43" s="195"/>
+      <c r="AM43" s="196"/>
     </row>
     <row r="44" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130"/>
-      <c r="B44" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="212"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="121"/>
-      <c r="W44" s="121"/>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="122"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="59"/>
-      <c r="AD44" s="59"/>
-      <c r="AE44" s="59"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="59"/>
-      <c r="AI44" s="59"/>
-      <c r="AJ44" s="59"/>
-      <c r="AK44" s="59"/>
-      <c r="AL44" s="59"/>
-      <c r="AM44" s="60"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="136"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="126"/>
+      <c r="AB44" s="195"/>
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="195"/>
+      <c r="AE44" s="195"/>
+      <c r="AF44" s="195"/>
+      <c r="AG44" s="195"/>
+      <c r="AH44" s="195"/>
+      <c r="AI44" s="195"/>
+      <c r="AJ44" s="195"/>
+      <c r="AK44" s="195"/>
+      <c r="AL44" s="195"/>
+      <c r="AM44" s="196"/>
     </row>
     <row r="45" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="130"/>
-      <c r="B45" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="212"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
-      <c r="V45" s="121"/>
-      <c r="W45" s="121"/>
-      <c r="X45" s="121"/>
-      <c r="Y45" s="121"/>
-      <c r="Z45" s="121"/>
-      <c r="AA45" s="122"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="59"/>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="60"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="136"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="125"/>
+      <c r="O45" s="125"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="125"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="126"/>
+      <c r="AB45" s="195"/>
+      <c r="AC45" s="195"/>
+      <c r="AD45" s="195"/>
+      <c r="AE45" s="195"/>
+      <c r="AF45" s="195"/>
+      <c r="AG45" s="195"/>
+      <c r="AH45" s="195"/>
+      <c r="AI45" s="195"/>
+      <c r="AJ45" s="195"/>
+      <c r="AK45" s="195"/>
+      <c r="AL45" s="195"/>
+      <c r="AM45" s="196"/>
     </row>
     <row r="46" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="130"/>
-      <c r="B46" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="123"/>
-      <c r="U46" s="123"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="123"/>
-      <c r="Y46" s="123"/>
-      <c r="Z46" s="123"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="59"/>
-      <c r="AI46" s="59"/>
-      <c r="AJ46" s="59"/>
-      <c r="AK46" s="59"/>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="60"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="127"/>
+      <c r="Y46" s="127"/>
+      <c r="Z46" s="127"/>
+      <c r="AA46" s="128"/>
+      <c r="AB46" s="195"/>
+      <c r="AC46" s="195"/>
+      <c r="AD46" s="195"/>
+      <c r="AE46" s="195"/>
+      <c r="AF46" s="195"/>
+      <c r="AG46" s="195"/>
+      <c r="AH46" s="195"/>
+      <c r="AI46" s="195"/>
+      <c r="AJ46" s="195"/>
+      <c r="AK46" s="195"/>
+      <c r="AL46" s="195"/>
+      <c r="AM46" s="196"/>
     </row>
     <row r="47" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="123"/>
-      <c r="P47" s="123"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="123"/>
-      <c r="T47" s="123"/>
-      <c r="U47" s="123"/>
-      <c r="V47" s="123"/>
-      <c r="W47" s="123"/>
-      <c r="X47" s="123"/>
-      <c r="Y47" s="123"/>
-      <c r="Z47" s="123"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="59"/>
-      <c r="AH47" s="59"/>
-      <c r="AI47" s="59"/>
-      <c r="AJ47" s="59"/>
-      <c r="AK47" s="59"/>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="60"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="127"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="195"/>
+      <c r="AC47" s="195"/>
+      <c r="AD47" s="195"/>
+      <c r="AE47" s="195"/>
+      <c r="AF47" s="195"/>
+      <c r="AG47" s="195"/>
+      <c r="AH47" s="195"/>
+      <c r="AI47" s="195"/>
+      <c r="AJ47" s="195"/>
+      <c r="AK47" s="195"/>
+      <c r="AL47" s="195"/>
+      <c r="AM47" s="196"/>
     </row>
     <row r="48" spans="1:39" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="131"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="125"/>
-      <c r="S48" s="125"/>
-      <c r="T48" s="125"/>
-      <c r="U48" s="125"/>
-      <c r="V48" s="125"/>
-      <c r="W48" s="125"/>
-      <c r="X48" s="125"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="125"/>
-      <c r="AA48" s="126"/>
-      <c r="AB48" s="206" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC48" s="61"/>
-      <c r="AD48" s="61"/>
-      <c r="AE48" s="61"/>
-      <c r="AF48" s="61"/>
-      <c r="AG48" s="61"/>
-      <c r="AH48" s="61"/>
-      <c r="AI48" s="61"/>
-      <c r="AJ48" s="61"/>
-      <c r="AK48" s="61"/>
-      <c r="AL48" s="61"/>
-      <c r="AM48" s="207"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="130"/>
+      <c r="AB48" s="216" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC48" s="217"/>
+      <c r="AD48" s="217"/>
+      <c r="AE48" s="217"/>
+      <c r="AF48" s="217"/>
+      <c r="AG48" s="217"/>
+      <c r="AH48" s="217"/>
+      <c r="AI48" s="217"/>
+      <c r="AJ48" s="217"/>
+      <c r="AK48" s="217"/>
+      <c r="AL48" s="217"/>
+      <c r="AM48" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A29:AM29"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="AB48:AM48"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="Q31:AA31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q32:AA32"/>
+    <mergeCell ref="Q33:AA33"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="D33:N33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="AB37:AM47"/>
+    <mergeCell ref="AB30:AM30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="AE36:AM36"/>
+    <mergeCell ref="AB32:AE33"/>
+    <mergeCell ref="AB34:AE35"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="K15:O16"/>
+    <mergeCell ref="J20:AK21"/>
+    <mergeCell ref="J23:AK24"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="H27:AE28"/>
+    <mergeCell ref="A11:AM11"/>
+    <mergeCell ref="A14:AM14"/>
+    <mergeCell ref="AJ12:AM13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="A7:AM8"/>
+    <mergeCell ref="A9:AM9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="O10:Z10"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:R13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AI13"/>
+    <mergeCell ref="O44:AA44"/>
+    <mergeCell ref="O45:AA45"/>
+    <mergeCell ref="O46:AA48"/>
+    <mergeCell ref="B46:N48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O43:AA43"/>
+    <mergeCell ref="O42:AA42"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:V40"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="O34:AA34"/>
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="A1:AM6"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
@@ -5385,133 +5477,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:V40"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="O34:AA34"/>
-    <mergeCell ref="B34:N34"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O44:AA44"/>
-    <mergeCell ref="O45:AA45"/>
-    <mergeCell ref="O46:AA48"/>
-    <mergeCell ref="B46:N48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O43:AA43"/>
-    <mergeCell ref="O42:AA42"/>
-    <mergeCell ref="A11:AM11"/>
-    <mergeCell ref="A14:AM14"/>
-    <mergeCell ref="AJ12:AM13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="A7:AM8"/>
-    <mergeCell ref="A9:AM9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="O10:Z10"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:R13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="Z12:AI13"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="AL28:AM28"/>
-    <mergeCell ref="K15:O16"/>
-    <mergeCell ref="J20:AK21"/>
-    <mergeCell ref="J23:AK24"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AB37:AM47"/>
-    <mergeCell ref="AB30:AM30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="AE36:AM36"/>
-    <mergeCell ref="AB32:AE33"/>
-    <mergeCell ref="AB34:AE35"/>
-    <mergeCell ref="AB48:AM48"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="Q31:AA31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q32:AA32"/>
-    <mergeCell ref="Q33:AA33"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D32:N32"/>
-    <mergeCell ref="D33:N33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="H27:AE28"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A29:AM29"/>
-    <mergeCell ref="AB36:AD36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
